--- a/data/excel/Mental_Health_Mood_Tracker_Sample_Data.xlsx
+++ b/data/excel/Mental_Health_Mood_Tracker_Sample_Data.xlsx
@@ -529,18 +529,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mood_20250409_111215</t>
+          <t>mood_20250409_114321</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45756.46684843385</v>
+        <v>45756.4884427288</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>45756</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -561,52 +561,52 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>peaceful, calm</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>7.242878427582288</v>
+        <v>7.636577594457445</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>stormy</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>financial_worry, health_concerns</t>
+          <t>social_isolation, family_issues</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Day 1 - seasonal_depression pattern</t>
+          <t>Day 1 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mood_20250410_111215</t>
+          <t>mood_20250410_114321</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45757.46684843385</v>
+        <v>45757.4884427288</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>45757</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -627,52 +627,52 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>peaceful, calm</t>
+          <t>content, peaceful</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>7.320189950015282</v>
+        <v>6.653612406518299</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>foggy</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>relationship_problems</t>
+          <t>financial_worry</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Day 2 - seasonal_depression pattern</t>
+          <t>Day 2 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mood_20250411_111215</t>
+          <t>mood_20250411_114321</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45758.46684843385</v>
+        <v>45758.4884427288</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>45758</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -689,24 +689,24 @@
         <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>stressed</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>7.191795283850609</v>
+        <v>4.477786206815792</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -715,30 +715,30 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>work_stress, relationship_problems, family_issues</t>
+          <t>sleep_deprivation, financial_worry</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Day 3 - seasonal_depression pattern</t>
+          <t>Day 3 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mood_20250412_111215</t>
+          <t>mood_20250412_114321</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45759.46684843385</v>
+        <v>45759.4884427288</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>45759</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -755,56 +755,56 @@
         <v>15</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>hopeful, calm</t>
+          <t>anxious, depressed</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>6.782866272606013</v>
+        <v>6.867704668581176</v>
       </c>
       <c r="K5" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>relationship_problems</t>
+          <t>financial_worry, sleep_deprivation</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Day 4 - seasonal_depression pattern</t>
+          <t>Day 4 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mood_20250413_111215</t>
+          <t>mood_20250413_114321</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45760.46684843385</v>
+        <v>45760.4884427288</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>45760</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -821,52 +821,56 @@
         <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>content, hopeful</t>
+          <t>hopeful</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>7.036702368355737</v>
+        <v>7.748035907625961</v>
       </c>
       <c r="K6" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>windy</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>stormy</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>financial_worry, social_isolation, relationship_problems</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Day 5 - seasonal_depression pattern</t>
+          <t>Day 5 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mood_20250414_111215</t>
+          <t>mood_20250414_114321</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45761.46684843385</v>
+        <v>45761.4884427288</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>45761</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -883,24 +887,24 @@
         <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>peaceful, hopeful</t>
+          <t>irritable, worried</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>7.445001082366005</v>
+        <v>4.144310449855116</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -909,30 +913,30 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>financial_worry, relationship_problems</t>
+          <t>sleep_deprivation, health_concerns</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Day 6 - seasonal_depression pattern</t>
+          <t>Day 6 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mood_20250415_111215</t>
+          <t>mood_20250415_114321</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45762.46684843385</v>
+        <v>45762.4884427288</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>45762</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -949,56 +953,56 @@
         <v>16</v>
       </c>
       <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>worried</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>4.949614935459802</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
         <v>6</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>peaceful, calm</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>7.085782183018769</v>
-      </c>
-      <c r="K8" t="n">
-        <v>26</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>work_stress, sleep_deprivation, financial_worry</t>
+          <t>weather_change</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Day 7 - seasonal_depression pattern</t>
+          <t>Day 7 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mood_20250416_111215</t>
+          <t>mood_20250416_114321</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45763.46684843385</v>
+        <v>45763.4884427288</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>45763</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1015,56 +1019,56 @@
         <v>16</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>hopeful, peaceful</t>
+          <t>frustrated</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>7.361260743376725</v>
+        <v>6.476477394762233</v>
       </c>
       <c r="K9" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>foggy</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>health_concerns, financial_worry, family_issues</t>
+          <t>relationship_problems</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Day 8 - seasonal_depression pattern</t>
+          <t>Day 8 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mood_20250417_111215</t>
+          <t>mood_20250417_114321</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45764.46684843385</v>
+        <v>45764.4884427288</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>45764</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1081,56 +1085,56 @@
         <v>16</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>worried</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>6.074773747159395</v>
+        <v>7.437524454936011</v>
       </c>
       <c r="K10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>rainy</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>health_concerns, work_stress, relationship_problems</t>
+          <t>financial_worry, sleep_deprivation, work_stress</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Day 9 - seasonal_depression pattern</t>
+          <t>Day 9 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mood_20250418_111215</t>
+          <t>mood_20250418_114321</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45765.46684843385</v>
+        <v>45765.4884427288</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>45765</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1147,56 +1151,56 @@
         <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>hopeful</t>
+          <t>peaceful, calm</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>6.826439505371481</v>
+        <v>7.470680325347749</v>
       </c>
       <c r="K11" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>rainy</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>relationship_problems, financial_worry, work_stress</t>
+          <t>sleep_deprivation, family_issues</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Day 10 - seasonal_depression pattern</t>
+          <t>Day 10 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mood_20250419_111215</t>
+          <t>mood_20250419_114321</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45766.46684843385</v>
+        <v>45766.4884427288</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>45766</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1213,52 +1217,56 @@
         <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>worried</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>7.019314152925701</v>
+        <v>7.812303067416123</v>
       </c>
       <c r="K12" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
         <v>4</v>
       </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>cloudy</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>health_concerns, weather_change</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Day 11 - seasonal_depression pattern</t>
+          <t>Day 11 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mood_20250420_111215</t>
+          <t>mood_20250420_114321</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45767.46684843385</v>
+        <v>45767.4884427288</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>45767</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1275,56 +1283,56 @@
         <v>16</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>peaceful</t>
+          <t>frustrated, worried</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>8.667328267975952</v>
+        <v>4.547150112521419</v>
       </c>
       <c r="K13" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>social_interaction, good_news</t>
+          <t>health_concerns, family_issues</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Day 12 - seasonal_depression pattern</t>
+          <t>Day 12 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mood_20250421_111215</t>
+          <t>mood_20250421_114321</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45768.46684843385</v>
+        <v>45768.4884427288</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>45768</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1341,56 +1349,56 @@
         <v>17</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>peaceful</t>
+          <t>stressed</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>7.269384224811771</v>
+        <v>6.638702921773301</v>
       </c>
       <c r="K14" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>foggy</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>sleep_deprivation</t>
+          <t>relationship_problems, health_concerns</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Day 13 - seasonal_depression pattern</t>
+          <t>Day 13 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mood_20250422_111215</t>
+          <t>mood_20250422_114321</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45769.46684843385</v>
+        <v>45769.4884427288</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1411,52 +1419,52 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>hopeful</t>
+          <t>frustrated, stressed</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>6.224994025394011</v>
+        <v>7.609986799442844</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>rainy</t>
+          <t>sunny</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>family_issues</t>
+          <t>sleep_deprivation</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Day 14 - seasonal_depression pattern</t>
+          <t>Day 14 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mood_20250423_111215</t>
+          <t>mood_20250423_114321</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45770.46684843385</v>
+        <v>45770.4884427288</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>45770</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1473,56 +1481,56 @@
         <v>17</v>
       </c>
       <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>irritable</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>6.874189677608038</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>6</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>peaceful, hopeful</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>7.820379328896779</v>
-      </c>
-      <c r="K16" t="n">
-        <v>21</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>stormy</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>sleep_deprivation, health_concerns, work_stress</t>
+          <t>weather_change, family_issues, health_concerns</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Day 15 - seasonal_depression pattern</t>
+          <t>Day 15 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mood_20250424_111215</t>
+          <t>mood_20250424_114321</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45771.46684843385</v>
+        <v>45771.4884427288</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>45771</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1539,24 +1547,24 @@
         <v>17</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>calm, content</t>
+          <t>irritable, worried</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>7.086018656897872</v>
+        <v>4.107984288956651</v>
       </c>
       <c r="K17" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1565,30 +1573,30 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>financial_worry, relationship_problems</t>
+          <t>health_concerns, sleep_deprivation</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Day 16 - seasonal_depression pattern</t>
+          <t>Day 16 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mood_20250425_111215</t>
+          <t>mood_20250425_114321</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45772.46684843385</v>
+        <v>45772.4884427288</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>45772</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1605,56 +1613,56 @@
         <v>17</v>
       </c>
       <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>4.536997429341005</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>7</v>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>calm</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>7.955878859666413</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>stormy</t>
+          <t>cloudy</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>sleep_deprivation</t>
+          <t>financial_worry</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Day 17 - seasonal_depression pattern</t>
+          <t>Day 17 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mood_20250426_111215</t>
+          <t>mood_20250426_114321</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45773.46684843385</v>
+        <v>45773.4884427288</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>45773</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1671,56 +1679,56 @@
         <v>17</v>
       </c>
       <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>frustrated</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>6.943922554355631</v>
+      </c>
+      <c r="K19" t="n">
         <v>8</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>peaceful</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>7.023958929802243</v>
-      </c>
-      <c r="K19" t="n">
-        <v>39</v>
-      </c>
       <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
         <v>6</v>
       </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>rainy</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>creative_activity</t>
+          <t>sleep_deprivation, social_isolation</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Day 18 - seasonal_depression pattern</t>
+          <t>Day 18 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mood_20250427_111215</t>
+          <t>mood_20250427_114321</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45774.46684843385</v>
+        <v>45774.4884427288</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>45774</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1737,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1745,44 +1753,48 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>7.766262797767391</v>
+        <v>6.176764996915382</v>
       </c>
       <c r="K20" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>cloudy</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>rainy</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>sleep_deprivation, weather_change</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Day 19 - seasonal_depression pattern</t>
+          <t>Day 19 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mood_20250428_111215</t>
+          <t>mood_20250428_114321</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45775.46684843385</v>
+        <v>45775.4884427288</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1799,56 +1811,56 @@
         <v>18</v>
       </c>
       <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>overwhelmed, sad</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>6.529986120362393</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>7</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>7.343264053289552</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>rainy</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>financial_worry, relationship_problems</t>
+          <t>social_isolation, family_issues</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Day 20 - seasonal_depression pattern</t>
+          <t>Day 20 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mood_20250429_111215</t>
+          <t>mood_20250429_114321</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45776.46684843385</v>
+        <v>45776.4884427288</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>45776</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1869,52 +1881,52 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>hopeful</t>
+          <t>frustrated</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>6.607187551438579</v>
+        <v>6.484355723421306</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>stormy</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>family_issues, health_concerns, financial_worry</t>
+          <t>sleep_deprivation</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Day 21 - seasonal_depression pattern</t>
+          <t>Day 21 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>mood_20250430_111215</t>
+          <t>mood_20250430_114321</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45777.46684843385</v>
+        <v>45777.4884427288</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>45777</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1931,24 +1943,24 @@
         <v>18</v>
       </c>
       <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>stressed</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>5.583422285538755</v>
+      </c>
+      <c r="K23" t="n">
         <v>7</v>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>calm</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>6.708633557081546</v>
-      </c>
-      <c r="K23" t="n">
-        <v>29</v>
-      </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1957,30 +1969,30 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>health_concerns, relationship_problems, work_stress</t>
+          <t>weather_change, social_isolation</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Day 22 - seasonal_depression pattern</t>
+          <t>Day 22 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mood_20250501_111215</t>
+          <t>mood_20250501_114321</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45778.46684843385</v>
+        <v>45778.4884427288</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>45778</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1997,56 +2009,56 @@
         <v>18</v>
       </c>
       <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>stressed</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>6.809637240649858</v>
+      </c>
+      <c r="K24" t="n">
         <v>6</v>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>7.614632388218403</v>
-      </c>
-      <c r="K24" t="n">
-        <v>23</v>
-      </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>work_stress, sleep_deprivation, health_concerns</t>
+          <t>relationship_problems, family_issues</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Day 23 - seasonal_depression pattern</t>
+          <t>Day 23 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mood_20250502_111215</t>
+          <t>mood_20250502_114321</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45779.46684843385</v>
+        <v>45779.4884427288</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2063,56 +2075,56 @@
         <v>18</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>frustrated, worried</t>
+          <t>worried</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>6.179964051863064</v>
+        <v>6.828883370768668</v>
       </c>
       <c r="K25" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>stormy</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>financial_worry, family_issues</t>
+          <t>relationship_problems, sleep_deprivation</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Day 24 - seasonal_depression pattern</t>
+          <t>Day 24 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mood_20250503_111215</t>
+          <t>mood_20250503_114321</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45780.46684843385</v>
+        <v>45780.4884427288</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>45780</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2129,56 +2141,56 @@
         <v>18</v>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>content, peaceful</t>
+          <t>depressed, overwhelmed, sad</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>7.087546701676104</v>
+        <v>5.010830695373848</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>stormy</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>relationship_problems, family_issues, work_stress</t>
+          <t>health_concerns</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Day 25 - seasonal_depression pattern</t>
+          <t>Day 25 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mood_20250504_111215</t>
+          <t>mood_20250504_114321</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45781.46684843385</v>
+        <v>45781.4884427288</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>45781</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2199,52 +2211,52 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>calm, content</t>
+          <t>hopeful</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>7.30786604799351</v>
+        <v>7.544236067880624</v>
       </c>
       <c r="K27" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L27" t="n">
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>financial_worry</t>
+          <t>relationship_problems</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Day 26 - seasonal_depression pattern</t>
+          <t>Day 26 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mood_20250505_111215</t>
+          <t>mood_20250505_114321</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45782.46684843385</v>
+        <v>45782.4884427288</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2261,24 +2273,24 @@
         <v>19</v>
       </c>
       <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>depressed</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>4.741896314945827</v>
+      </c>
+      <c r="K28" t="n">
         <v>6</v>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>frustrated, irritable</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>7.710537155368373</v>
-      </c>
-      <c r="K28" t="n">
-        <v>26</v>
-      </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2287,30 +2299,30 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>financial_worry</t>
+          <t>sleep_deprivation, health_concerns, social_isolation</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Day 27 - seasonal_depression pattern</t>
+          <t>Day 27 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mood_20250506_111215</t>
+          <t>mood_20250506_114321</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45783.46684843385</v>
+        <v>45783.4884427288</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2327,56 +2339,56 @@
         <v>19</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>stressed, worried</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>7.453274299765059</v>
+        <v>7.040496148755248</v>
       </c>
       <c r="K29" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>financial_worry, relationship_problems</t>
+          <t>family_issues</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Day 28 - seasonal_depression pattern</t>
+          <t>Day 28 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mood_20250507_111215</t>
+          <t>mood_20250507_114321</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45784.46684843385</v>
+        <v>45784.4884427288</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>45784</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2397,20 +2409,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>calm, content</t>
+          <t>frustrated</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>7.926859104152486</v>
+        <v>7.131081217232668</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2419,30 +2431,30 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>family_issues, sleep_deprivation</t>
+          <t>family_issues, weather_change, social_isolation</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Day 29 - seasonal_depression pattern</t>
+          <t>Day 29 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mood_20250508_111215</t>
+          <t>mood_20250508_114321</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45785.46684843385</v>
+        <v>45785.4884427288</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>45785</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2459,24 +2471,24 @@
         <v>19</v>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>peaceful, hopeful</t>
+          <t>frustrated</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>7.450038396122164</v>
+        <v>6.497120636291094</v>
       </c>
       <c r="K31" t="n">
         <v>10</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2485,30 +2497,30 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>sleep_deprivation, financial_worry</t>
+          <t>relationship_problems, financial_worry</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Day 30 - seasonal_depression pattern</t>
+          <t>Day 30 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mood_20250509_111215</t>
+          <t>mood_20250509_114321</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45786.46684843385</v>
+        <v>45786.4884427288</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>45786</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2525,56 +2537,56 @@
         <v>19</v>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>frustrated</t>
+          <t>worried</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>7.693329264966079</v>
+        <v>5.265425514945452</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>rainy</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>work_stress</t>
+          <t>sleep_deprivation, family_issues</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Day 31 - seasonal_depression pattern</t>
+          <t>Day 31 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mood_20250510_111215</t>
+          <t>mood_20250510_114321</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45787.46684843385</v>
+        <v>45787.4884427288</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>45787</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2591,56 +2603,56 @@
         <v>19</v>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>peaceful, content</t>
+          <t>irritable</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>6.383328253484043</v>
+        <v>4.10708525012266</v>
       </c>
       <c r="K33" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>6</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>foggy</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>relationship_problems, sleep_deprivation, family_issues</t>
+          <t>financial_worry, sleep_deprivation, weather_change</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Day 32 - seasonal_depression pattern</t>
+          <t>Day 32 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mood_20250511_111215</t>
+          <t>mood_20250511_114321</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45788.46684843385</v>
+        <v>45788.4884427288</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>45788</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2665,48 +2677,48 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>6.806256107606548</v>
+        <v>6.265268708886495</v>
       </c>
       <c r="K34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>rainy</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>health_concerns, work_stress, relationship_problems</t>
+          <t>relationship_problems</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Day 33 - seasonal_depression pattern</t>
+          <t>Day 33 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mood_20250512_111215</t>
+          <t>mood_20250512_114321</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45789.46684843385</v>
+        <v>45789.4884427288</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>45789</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2723,56 +2735,56 @@
         <v>20</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>stressed, frustrated</t>
+          <t>frustrated</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>6.462091616936517</v>
+        <v>5.458106672878113</v>
       </c>
       <c r="K35" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>rainy</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>relationship_problems</t>
+          <t>weather_change</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Day 34 - seasonal_depression pattern</t>
+          <t>Day 34 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mood_20250513_111215</t>
+          <t>mood_20250513_114321</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45790.46684843385</v>
+        <v>45790.4884427288</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>45790</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2789,24 +2801,24 @@
         <v>20</v>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>peaceful</t>
+          <t>stressed</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>7.948895661452549</v>
+        <v>6.87251503837771</v>
       </c>
       <c r="K36" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L36" t="n">
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2815,30 +2827,30 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>work_stress</t>
+          <t>weather_change, relationship_problems, health_concerns</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Day 35 - seasonal_depression pattern</t>
+          <t>Day 35 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mood_20250514_111215</t>
+          <t>mood_20250514_114321</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45791.46684843385</v>
+        <v>45791.4884427288</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>45791</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2855,56 +2867,56 @@
         <v>20</v>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>worried</t>
+          <t>stressed, worried</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>7.108981684261886</v>
+        <v>6.705233279554112</v>
       </c>
       <c r="K37" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>foggy</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>family_issues</t>
+          <t>health_concerns, work_stress</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Day 36 - seasonal_depression pattern</t>
+          <t>Day 36 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mood_20250515_111215</t>
+          <t>mood_20250515_114321</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45792.46684843385</v>
+        <v>45792.4884427288</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>45792</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2921,24 +2933,24 @@
         <v>20</v>
       </c>
       <c r="H38" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>peaceful, calm</t>
+          <t>overwhelmed</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>6.576036869563751</v>
+        <v>5.456393159829446</v>
       </c>
       <c r="K38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2947,30 +2959,30 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>work_stress</t>
+          <t>health_concerns, work_stress</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Day 37 - seasonal_depression pattern</t>
+          <t>Day 37 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mood_20250516_111215</t>
+          <t>mood_20250516_114321</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45793.46684843385</v>
+        <v>45793.4884427288</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>45793</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2987,56 +2999,56 @@
         <v>20</v>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>stressed</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>7.182163651062512</v>
+        <v>4.020838921002277</v>
       </c>
       <c r="K39" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>rainy</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>relationship_problems, family_issues, work_stress</t>
+          <t>family_issues</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Day 38 - seasonal_depression pattern</t>
+          <t>Day 38 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>mood_20250517_111215</t>
+          <t>mood_20250517_114321</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45794.46684843385</v>
+        <v>45794.4884427288</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>45794</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3053,56 +3065,56 @@
         <v>20</v>
       </c>
       <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>depressed, overwhelmed</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>5.159523510690994</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
         <v>7</v>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>hopeful, content</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>6.508882085048776</v>
-      </c>
-      <c r="K40" t="n">
-        <v>14</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3</v>
-      </c>
-      <c r="M40" t="n">
-        <v>6</v>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>foggy</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>health_concerns, sleep_deprivation</t>
+          <t>health_concerns, weather_change, social_isolation</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Day 39 - seasonal_depression pattern</t>
+          <t>Day 39 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mood_20250518_111215</t>
+          <t>mood_20250518_114321</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45795.46684843385</v>
+        <v>45795.4884427288</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>45795</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3123,52 +3135,52 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>peaceful, hopeful</t>
+          <t>worried, stressed</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>6.45131500166211</v>
+        <v>7.229819917883789</v>
       </c>
       <c r="K41" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>rainy</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>family_issues, sleep_deprivation</t>
+          <t>relationship_problems, financial_worry</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Day 40 - seasonal_depression pattern</t>
+          <t>Day 40 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mood_20250519_111215</t>
+          <t>mood_20250519_114321</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45796.46684843385</v>
+        <v>45796.4884427288</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>45796</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3185,24 +3197,24 @@
         <v>21</v>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>stressed, frustrated</t>
+          <t>frustrated</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>7.309516260079024</v>
+        <v>4.103439868582667</v>
       </c>
       <c r="K42" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3211,30 +3223,30 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>work_stress, family_issues, sleep_deprivation</t>
+          <t>social_isolation</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Day 41 - seasonal_depression pattern</t>
+          <t>Day 41 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mood_20250520_111215</t>
+          <t>mood_20250520_114321</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45797.46684843385</v>
+        <v>45797.4884427288</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>45797</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3251,56 +3263,56 @@
         <v>21</v>
       </c>
       <c r="H43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>peaceful</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>6.270369972173889</v>
+        <v>7.518636446881132</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>stormy</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>sleep_deprivation, financial_worry, work_stress</t>
+          <t>social_isolation</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Day 42 - seasonal_depression pattern</t>
+          <t>Day 42 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mood_20250521_111215</t>
+          <t>mood_20250521_114321</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45798.46684843385</v>
+        <v>45798.4884427288</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>45798</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3317,25 +3329,25 @@
         <v>21</v>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>worried, frustrated</t>
+          <t>irritable, frustrated</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>6.972373120626342</v>
+        <v>6.840553634796945</v>
       </c>
       <c r="K44" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
         <v>3</v>
       </c>
-      <c r="M44" t="n">
-        <v>5</v>
-      </c>
       <c r="N44" t="inlineStr">
         <is>
           <t>windy</t>
@@ -3343,30 +3355,30 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>relationship_problems, financial_worry</t>
+          <t>family_issues, financial_worry</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Day 43 - seasonal_depression pattern</t>
+          <t>Day 43 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mood_20250522_111215</t>
+          <t>mood_20250522_114321</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45799.46684843385</v>
+        <v>45799.4884427288</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>45799</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3383,56 +3395,56 @@
         <v>21</v>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>worried</t>
+          <t>anxious, lonely</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>6.974331427656585</v>
+        <v>4.543395852817365</v>
       </c>
       <c r="K45" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>rainy</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>health_concerns</t>
+          <t>social_isolation, work_stress</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Day 44 - seasonal_depression pattern</t>
+          <t>Day 44 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mood_20250523_111215</t>
+          <t>mood_20250523_114321</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45800.46684843385</v>
+        <v>45800.4884427288</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>45800</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3449,56 +3461,56 @@
         <v>21</v>
       </c>
       <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>sad, anxious</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>4.697346602689561</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>7</v>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>content, hopeful</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>7.557780995690823</v>
-      </c>
-      <c r="K46" t="n">
-        <v>13</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4</v>
-      </c>
-      <c r="M46" t="n">
-        <v>6</v>
-      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>health_concerns, work_stress</t>
+          <t>weather_change, sleep_deprivation, financial_worry</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Day 45 - seasonal_depression pattern</t>
+          <t>Day 45 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>mood_20250524_111215</t>
+          <t>mood_20250524_114321</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45801.46684843385</v>
+        <v>45801.4884427288</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>45801</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3515,56 +3527,56 @@
         <v>21</v>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>peaceful</t>
+          <t>worried</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>6.504004636101247</v>
+        <v>4.843569140878667</v>
       </c>
       <c r="K47" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>stormy</t>
+          <t>sunny</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>relationship_problems, sleep_deprivation, family_issues</t>
+          <t>work_stress, relationship_problems, family_issues</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Day 46 - seasonal_depression pattern</t>
+          <t>Day 46 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mood_20250525_111215</t>
+          <t>mood_20250525_114321</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45802.46684843385</v>
+        <v>45802.4884427288</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>45802</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3585,52 +3597,52 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>calm, peaceful</t>
+          <t>calm</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>7.34872008791738</v>
+        <v>6.31812341158947</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="L48" t="n">
         <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>sleep_deprivation, work_stress</t>
+          <t>sleep_deprivation</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Day 47 - seasonal_depression pattern</t>
+          <t>Day 47 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>mood_20250526_111215</t>
+          <t>mood_20250526_114321</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45803.46684843385</v>
+        <v>45803.4884427288</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>45803</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3647,56 +3659,56 @@
         <v>22</v>
       </c>
       <c r="H49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>stressed, frustrated</t>
+          <t>stressed, irritable</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>7.116792559910433</v>
+        <v>6.383941238951524</v>
       </c>
       <c r="K49" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>family_issues, sleep_deprivation, financial_worry</t>
+          <t>weather_change</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Day 48 - seasonal_depression pattern</t>
+          <t>Day 48 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>mood_20250527_111215</t>
+          <t>mood_20250527_114321</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45804.46684843385</v>
+        <v>45804.4884427288</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>45804</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3713,56 +3725,56 @@
         <v>22</v>
       </c>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>stressed, worried</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>7.917990040315551</v>
+        <v>6.34232612201337</v>
       </c>
       <c r="K50" t="n">
         <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>stormy</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>relationship_problems</t>
+          <t>family_issues, sleep_deprivation, financial_worry</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Day 49 - seasonal_depression pattern</t>
+          <t>Day 49 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>mood_20250528_111215</t>
+          <t>mood_20250528_114321</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45805.46684843385</v>
+        <v>45805.4884427288</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>45805</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3779,56 +3791,56 @@
         <v>22</v>
       </c>
       <c r="H51" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>stressed</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>7.480475335790404</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
         <v>6</v>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>irritable, frustrated</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>6.00735837399251</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4</v>
-      </c>
-      <c r="M51" t="n">
-        <v>5</v>
-      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>foggy</t>
+          <t>sunny</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>financial_worry, relationship_problems, family_issues</t>
+          <t>financial_worry, social_isolation, work_stress</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Day 50 - seasonal_depression pattern</t>
+          <t>Day 50 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>mood_20250529_111215</t>
+          <t>mood_20250529_114321</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45806.46684843385</v>
+        <v>45806.4884427288</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>45806</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3845,56 +3857,56 @@
         <v>22</v>
       </c>
       <c r="H52" t="n">
+        <v>4</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>frustrated</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>5.32548862119889</v>
+      </c>
+      <c r="K52" t="n">
         <v>6</v>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>irritable</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>7.996193626755012</v>
-      </c>
-      <c r="K52" t="n">
-        <v>17</v>
-      </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>relationship_problems, work_stress</t>
+          <t>relationship_problems, health_concerns, work_stress</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Day 51 - seasonal_depression pattern</t>
+          <t>Day 51 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>mood_20250530_111215</t>
+          <t>mood_20250530_114321</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45807.46684843385</v>
+        <v>45807.4884427288</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>45807</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3915,52 +3927,52 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>hopeful</t>
+          <t>calm</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>7.405540834699694</v>
+        <v>6.277829269229021</v>
       </c>
       <c r="K53" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>financial_worry, sleep_deprivation</t>
+          <t>work_stress, family_issues</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Day 52 - seasonal_depression pattern</t>
+          <t>Day 52 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mood_20250531_111215</t>
+          <t>mood_20250531_114321</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45808.46684843385</v>
+        <v>45808.4884427288</v>
       </c>
       <c r="C54" s="3" t="n">
         <v>45808</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3981,14 +3993,14 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>calm, content</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>7.374521978422784</v>
+        <v>6.624523772146195</v>
       </c>
       <c r="K54" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>4</v>
@@ -3998,35 +4010,35 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>stormy</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>sleep_deprivation, work_stress</t>
+          <t>weather_change</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Day 53 - seasonal_depression pattern</t>
+          <t>Day 53 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mood_20250601_111215</t>
+          <t>mood_20250601_114321</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45809.46684843385</v>
+        <v>45809.4884427288</v>
       </c>
       <c r="C55" s="3" t="n">
         <v>45809</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4043,24 +4055,24 @@
         <v>22</v>
       </c>
       <c r="H55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>frustrated</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>6.22757876164561</v>
+        <v>7.389947023108325</v>
       </c>
       <c r="K55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4069,30 +4081,30 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>sleep_deprivation, financial_worry, health_concerns</t>
+          <t>relationship_problems, weather_change</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Day 54 - seasonal_depression pattern</t>
+          <t>Day 54 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mood_20250602_111215</t>
+          <t>mood_20250602_114321</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45810.46684843385</v>
+        <v>45810.4884427288</v>
       </c>
       <c r="C56" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4109,56 +4121,56 @@
         <v>23</v>
       </c>
       <c r="H56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>irritable</t>
+          <t>frustrated, stressed</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>6.532858209088037</v>
+        <v>5.479060777176778</v>
       </c>
       <c r="K56" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>health_concerns</t>
+          <t>sleep_deprivation</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Day 55 - seasonal_depression pattern</t>
+          <t>Day 55 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mood_20250603_111215</t>
+          <t>mood_20250603_114321</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45811.46684843385</v>
+        <v>45811.4884427288</v>
       </c>
       <c r="C57" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4175,56 +4187,56 @@
         <v>23</v>
       </c>
       <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>depressed, sad</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>6.308873280173797</v>
+      </c>
+      <c r="K57" t="n">
         <v>6</v>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>stressed, irritable</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>6.162606919120402</v>
-      </c>
-      <c r="K57" t="n">
-        <v>29</v>
-      </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>stormy</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>work_stress, family_issues, financial_worry</t>
+          <t>sleep_deprivation, weather_change, work_stress</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Day 56 - seasonal_depression pattern</t>
+          <t>Day 56 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mood_20250604_111215</t>
+          <t>mood_20250604_114321</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45812.46684843385</v>
+        <v>45812.4884427288</v>
       </c>
       <c r="C58" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4241,56 +4253,56 @@
         <v>23</v>
       </c>
       <c r="H58" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>stressed</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>7.540249872247213</v>
+        <v>7.906361601390279</v>
       </c>
       <c r="K58" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>rainy</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>sleep_deprivation, family_issues</t>
+          <t>sleep_deprivation, social_isolation, work_stress</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Day 57 - seasonal_depression pattern</t>
+          <t>Day 57 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>mood_20250605_111215</t>
+          <t>mood_20250605_114321</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45813.46684843385</v>
+        <v>45813.4884427288</v>
       </c>
       <c r="C59" s="3" t="n">
         <v>45813</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4307,24 +4319,24 @@
         <v>23</v>
       </c>
       <c r="H59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>hopeful, content</t>
+          <t>irritable, frustrated</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>7.071354784580348</v>
+        <v>6.013034415318787</v>
       </c>
       <c r="K59" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4333,30 +4345,30 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>health_concerns, relationship_problems, sleep_deprivation</t>
+          <t>sleep_deprivation</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Day 58 - seasonal_depression pattern</t>
+          <t>Day 58 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>mood_20250606_111215</t>
+          <t>mood_20250606_114321</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45814.46684843385</v>
+        <v>45814.4884427288</v>
       </c>
       <c r="C60" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4373,56 +4385,56 @@
         <v>23</v>
       </c>
       <c r="H60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>hopeful</t>
+          <t>frustrated, worried</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>7.069596294243836</v>
+        <v>5.160437537313971</v>
       </c>
       <c r="K60" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>foggy</t>
+          <t>stormy</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>family_issues, sleep_deprivation, relationship_problems</t>
+          <t>weather_change</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Day 59 - seasonal_depression pattern</t>
+          <t>Day 59 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mood_20250607_111215</t>
+          <t>mood_20250607_114321</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45815.46684843385</v>
+        <v>45815.4884427288</v>
       </c>
       <c r="C61" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4439,56 +4451,56 @@
         <v>23</v>
       </c>
       <c r="H61" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>hopeful, peaceful</t>
+          <t>worried, irritable</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>6.676887011215266</v>
+        <v>6.587318309989266</v>
       </c>
       <c r="K61" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>rainy</t>
+          <t>cloudy</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>health_concerns, sleep_deprivation</t>
+          <t>social_isolation</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Day 60 - seasonal_depression pattern</t>
+          <t>Day 60 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mood_20250608_111215</t>
+          <t>mood_20250608_114321</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45816.46684843385</v>
+        <v>45816.4884427288</v>
       </c>
       <c r="C62" s="3" t="n">
         <v>45816</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4505,56 +4517,56 @@
         <v>23</v>
       </c>
       <c r="H62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>hopeful, calm</t>
+          <t>irritable, worried</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>6.696862901621493</v>
+        <v>7.196874227450133</v>
       </c>
       <c r="K62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L62" t="n">
         <v>5</v>
       </c>
       <c r="M62" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>foggy</t>
+          <t>stormy</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>sleep_deprivation, health_concerns, family_issues</t>
+          <t>family_issues</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Day 61 - seasonal_depression pattern</t>
+          <t>Day 61 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mood_20250609_111215</t>
+          <t>mood_20250609_114321</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45817.46684843385</v>
+        <v>45817.4884427288</v>
       </c>
       <c r="C63" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4571,56 +4583,56 @@
         <v>24</v>
       </c>
       <c r="H63" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>content, peaceful</t>
+          <t>overwhelmed</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>6.129152788621264</v>
+        <v>6.781424560998857</v>
       </c>
       <c r="K63" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>work_stress, sleep_deprivation, family_issues</t>
+          <t>family_issues, financial_worry, health_concerns</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Day 62 - seasonal_depression pattern</t>
+          <t>Day 62 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mood_20250610_111215</t>
+          <t>mood_20250610_114321</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45818.46684843385</v>
+        <v>45818.4884427288</v>
       </c>
       <c r="C64" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4641,52 +4653,52 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>hopeful</t>
+          <t>peaceful, calm</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>7.454061611378373</v>
+        <v>7.152899806959924</v>
       </c>
       <c r="K64" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>windy</t>
+          <t>cloudy</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>sleep_deprivation</t>
+          <t>work_stress, family_issues</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Day 63 - seasonal_depression pattern</t>
+          <t>Day 63 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>mood_20250611_111215</t>
+          <t>mood_20250611_114321</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45819.46684843385</v>
+        <v>45819.4884427288</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4703,56 +4715,56 @@
         <v>24</v>
       </c>
       <c r="H65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>irritable</t>
+          <t>calm</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>7.994822293617683</v>
+        <v>6.900177938432515</v>
       </c>
       <c r="K65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L65" t="n">
         <v>2</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>rainy</t>
+          <t>sunny</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>financial_worry, relationship_problems, health_concerns</t>
+          <t>weather_change, health_concerns, financial_worry</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Day 64 - seasonal_depression pattern</t>
+          <t>Day 64 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mood_20250612_111215</t>
+          <t>mood_20250612_114321</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45820.46684843385</v>
+        <v>45820.4884427288</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4769,56 +4781,56 @@
         <v>24</v>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>hopeful</t>
+          <t>overwhelmed, lonely</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>7.166556000936008</v>
+        <v>5.722792001481963</v>
       </c>
       <c r="K66" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>health_concerns, financial_worry, sleep_deprivation</t>
+          <t>weather_change</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Day 65 - seasonal_depression pattern</t>
+          <t>Day 65 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mood_20250613_111215</t>
+          <t>mood_20250613_114321</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45821.46684843385</v>
+        <v>45821.4884427288</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>45821</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4835,56 +4847,56 @@
         <v>24</v>
       </c>
       <c r="H67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>worried</t>
+          <t>frustrated, stressed</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>7.144059830707082</v>
+        <v>4.565606801170638</v>
       </c>
       <c r="K67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>foggy</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>family_issues</t>
+          <t>health_concerns, sleep_deprivation</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Day 66 - seasonal_depression pattern</t>
+          <t>Day 66 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mood_20250614_111215</t>
+          <t>mood_20250614_114321</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45822.46684843385</v>
+        <v>45822.4884427288</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>45822</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4901,56 +4913,56 @@
         <v>24</v>
       </c>
       <c r="H68" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>content, calm</t>
+          <t>anxious, sad</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>7.811025680839291</v>
+        <v>4.106248631533919</v>
       </c>
       <c r="K68" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>work_stress, financial_worry</t>
+          <t>health_concerns, family_issues</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Day 67 - seasonal_depression pattern</t>
+          <t>Day 67 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mood_20250615_111215</t>
+          <t>mood_20250615_114321</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45823.46684843385</v>
+        <v>45823.4884427288</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>45823</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4967,56 +4979,56 @@
         <v>24</v>
       </c>
       <c r="H69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>hopeful</t>
+          <t>irritable, stressed</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>6.045824610514928</v>
+        <v>4.41586035395754</v>
       </c>
       <c r="K69" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>health_concerns, financial_worry</t>
+          <t>sleep_deprivation</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Day 68 - seasonal_depression pattern</t>
+          <t>Day 68 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>mood_20250616_111215</t>
+          <t>mood_20250616_114321</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45824.46684843385</v>
+        <v>45824.4884427288</v>
       </c>
       <c r="C70" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5033,24 +5045,24 @@
         <v>25</v>
       </c>
       <c r="H70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>worried</t>
+          <t>stressed, irritable</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>6.500289420346448</v>
+        <v>6.710827246064832</v>
       </c>
       <c r="K70" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5059,30 +5071,30 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>relationship_problems, work_stress, financial_worry</t>
+          <t>family_issues, work_stress</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Day 69 - seasonal_depression pattern</t>
+          <t>Day 69 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mood_20250617_111215</t>
+          <t>mood_20250617_114321</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45825.46684843385</v>
+        <v>45825.4884427288</v>
       </c>
       <c r="C71" s="3" t="n">
         <v>45825</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5103,52 +5115,52 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>calm</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>7.170858819962112</v>
+        <v>7.756952106634115</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>rainy</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>financial_worry, family_issues, sleep_deprivation</t>
+          <t>family_issues, health_concerns, social_isolation</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Day 70 - seasonal_depression pattern</t>
+          <t>Day 70 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>mood_20250618_111215</t>
+          <t>mood_20250618_114321</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45826.46684843385</v>
+        <v>45826.4884427288</v>
       </c>
       <c r="C72" s="3" t="n">
         <v>45826</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5169,52 +5181,52 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>peaceful, hopeful</t>
+          <t>stressed, worried</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>7.921118835551599</v>
+        <v>6.696122978968413</v>
       </c>
       <c r="K72" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>foggy</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>family_issues</t>
+          <t>family_issues, relationship_problems</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Day 71 - seasonal_depression pattern</t>
+          <t>Day 71 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>mood_20250619_111215</t>
+          <t>mood_20250619_114321</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45827.46684843385</v>
+        <v>45827.4884427288</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>45827</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5231,28 +5243,28 @@
         <v>25</v>
       </c>
       <c r="H73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>peaceful</t>
+          <t>worried</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>7.23849050521537</v>
+        <v>4.251793324587453</v>
       </c>
       <c r="K73" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5262,25 +5274,25 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Day 72 - seasonal_depression pattern</t>
+          <t>Day 72 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>mood_20250620_111215</t>
+          <t>mood_20250620_114321</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45828.46684843385</v>
+        <v>45828.4884427288</v>
       </c>
       <c r="C74" s="3" t="n">
         <v>45828</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5297,56 +5309,56 @@
         <v>25</v>
       </c>
       <c r="H74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>worried, stressed</t>
+          <t>stressed, irritable</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>7.457899957048243</v>
+        <v>6.29277760855261</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>stormy</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>family_issues, work_stress</t>
+          <t>financial_worry, health_concerns</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Day 73 - seasonal_depression pattern</t>
+          <t>Day 73 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>mood_20250621_111215</t>
+          <t>mood_20250621_114321</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45829.46684843385</v>
+        <v>45829.4884427288</v>
       </c>
       <c r="C75" s="3" t="n">
         <v>45829</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5363,56 +5375,56 @@
         <v>25</v>
       </c>
       <c r="H75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>stressed</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>6.162628721197518</v>
+        <v>6.561864954463197</v>
       </c>
       <c r="K75" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>windy</t>
+          <t>foggy</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>relationship_problems</t>
+          <t>family_issues, sleep_deprivation</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Day 74 - seasonal_depression pattern</t>
+          <t>Day 74 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>mood_20250622_111215</t>
+          <t>mood_20250622_114321</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45830.46684843385</v>
+        <v>45830.4884427288</v>
       </c>
       <c r="C76" s="3" t="n">
         <v>45830</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5429,56 +5441,56 @@
         <v>25</v>
       </c>
       <c r="H76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>peaceful, content</t>
+          <t>stressed</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>6.002743505851005</v>
+        <v>4.663932455553561</v>
       </c>
       <c r="K76" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>rainy</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>relationship_problems</t>
+          <t>family_issues, social_isolation, health_concerns</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Day 75 - seasonal_depression pattern</t>
+          <t>Day 75 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>mood_20250623_111215</t>
+          <t>mood_20250623_114321</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45831.46684843385</v>
+        <v>45831.4884427288</v>
       </c>
       <c r="C77" s="3" t="n">
         <v>45831</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5499,52 +5511,52 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>worried, irritable</t>
+          <t>hopeful</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>6.115647359543881</v>
+        <v>6.563184408788739</v>
       </c>
       <c r="K77" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>foggy</t>
+          <t>rainy</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>health_concerns, work_stress</t>
+          <t>family_issues, relationship_problems</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Day 76 - seasonal_depression pattern</t>
+          <t>Day 76 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>mood_20250624_111215</t>
+          <t>mood_20250624_114321</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45832.46684843385</v>
+        <v>45832.4884427288</v>
       </c>
       <c r="C78" s="3" t="n">
         <v>45832</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5561,56 +5573,56 @@
         <v>26</v>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>worried, irritable</t>
+          <t>depressed, sad, anxious</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>6.320776500990728</v>
+        <v>4.636469067255385</v>
       </c>
       <c r="K78" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>windy</t>
+          <t>rainy</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>health_concerns, financial_worry</t>
+          <t>financial_worry, health_concerns</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Day 77 - seasonal_depression pattern</t>
+          <t>Day 77 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>mood_20250625_111215</t>
+          <t>mood_20250625_114321</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45833.46684843385</v>
+        <v>45833.4884427288</v>
       </c>
       <c r="C79" s="3" t="n">
         <v>45833</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5627,56 +5639,56 @@
         <v>26</v>
       </c>
       <c r="H79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>hopeful</t>
+          <t>frustrated, irritable</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>7.81737271927834</v>
+        <v>7.314841565031899</v>
       </c>
       <c r="K79" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>rainy</t>
+          <t>foggy</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>health_concerns, family_issues, relationship_problems</t>
+          <t>sleep_deprivation, financial_worry, weather_change</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Day 78 - seasonal_depression pattern</t>
+          <t>Day 78 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>mood_20250626_111215</t>
+          <t>mood_20250626_114321</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45834.46684843385</v>
+        <v>45834.4884427288</v>
       </c>
       <c r="C80" s="3" t="n">
         <v>45834</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5693,56 +5705,56 @@
         <v>26</v>
       </c>
       <c r="H80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>hopeful, content</t>
+          <t>depressed, overwhelmed, sad</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>7.934511820929732</v>
+        <v>4.126542874444636</v>
       </c>
       <c r="K80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>rainy</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>relationship_problems, financial_worry</t>
+          <t>health_concerns, social_isolation, weather_change</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Day 79 - seasonal_depression pattern</t>
+          <t>Day 79 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>mood_20250627_111215</t>
+          <t>mood_20250627_114321</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45835.46684843385</v>
+        <v>45835.4884427288</v>
       </c>
       <c r="C81" s="3" t="n">
         <v>45835</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5763,52 +5775,52 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>stressed</t>
+          <t>hopeful</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>6.11114513802922</v>
+        <v>6.587939574744103</v>
       </c>
       <c r="K81" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L81" t="n">
         <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>windy</t>
+          <t>sunny</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>family_issues</t>
+          <t>weather_change, work_stress, family_issues</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Day 80 - seasonal_depression pattern</t>
+          <t>Day 80 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mood_20250628_111215</t>
+          <t>mood_20250628_114321</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45836.46684843385</v>
+        <v>45836.4884427288</v>
       </c>
       <c r="C82" s="3" t="n">
         <v>45836</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5825,28 +5837,28 @@
         <v>26</v>
       </c>
       <c r="H82" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>content</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>6.374771674061138</v>
+        <v>6.166242301008044</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="L82" t="n">
+        <v>4</v>
+      </c>
+      <c r="M82" t="n">
         <v>3</v>
       </c>
-      <c r="M82" t="n">
-        <v>6</v>
-      </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>windy</t>
+          <t>sunny</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -5856,25 +5868,25 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Day 81 - seasonal_depression pattern</t>
+          <t>Day 81 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>mood_20250629_111215</t>
+          <t>mood_20250629_114321</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45837.46684843385</v>
+        <v>45837.4884427288</v>
       </c>
       <c r="C83" s="3" t="n">
         <v>45837</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5891,56 +5903,56 @@
         <v>26</v>
       </c>
       <c r="H83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>hopeful, peaceful</t>
+          <t>content, hopeful</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>7.278358669521826</v>
+        <v>6.011236913766943</v>
       </c>
       <c r="K83" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L83" t="n">
         <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>rainy</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>financial_worry, health_concerns</t>
+          <t>relationship_problems, weather_change, social_isolation</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Day 82 - seasonal_depression pattern</t>
+          <t>Day 82 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>mood_20250630_111215</t>
+          <t>mood_20250630_114321</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45838.46684843385</v>
+        <v>45838.4884427288</v>
       </c>
       <c r="C84" s="3" t="n">
         <v>45838</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5957,56 +5969,56 @@
         <v>27</v>
       </c>
       <c r="H84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>worried, irritable</t>
+          <t>depressed</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>7.312446693813403</v>
+        <v>5.859537824376588</v>
       </c>
       <c r="K84" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>foggy</t>
+          <t>stormy</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>family_issues, health_concerns, work_stress</t>
+          <t>relationship_problems</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Day 83 - seasonal_depression pattern</t>
+          <t>Day 83 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>mood_20250701_111215</t>
+          <t>mood_20250701_114321</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45839.46684843385</v>
+        <v>45839.4884427288</v>
       </c>
       <c r="C85" s="3" t="n">
         <v>45839</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6023,7 +6035,7 @@
         <v>27</v>
       </c>
       <c r="H85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -6031,48 +6043,48 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>6.309500006120947</v>
+        <v>7.561844991836119</v>
       </c>
       <c r="K85" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>foggy</t>
+          <t>cloudy</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>family_issues</t>
+          <t>weather_change, family_issues</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Day 84 - seasonal_depression pattern</t>
+          <t>Day 84 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>mood_20250702_111215</t>
+          <t>mood_20250702_114321</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45840.46684843385</v>
+        <v>45840.4884427288</v>
       </c>
       <c r="C86" s="3" t="n">
         <v>45840</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6089,56 +6101,56 @@
         <v>27</v>
       </c>
       <c r="H86" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>calm, peaceful</t>
+          <t>frustrated</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>6.011829879616592</v>
+        <v>6.106220665746243</v>
       </c>
       <c r="K86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>sleep_deprivation, relationship_problems</t>
+          <t>work_stress, social_isolation, weather_change</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Day 85 - seasonal_depression pattern</t>
+          <t>Day 85 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>mood_20250703_111215</t>
+          <t>mood_20250703_114321</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45841.46684843385</v>
+        <v>45841.4884427288</v>
       </c>
       <c r="C87" s="3" t="n">
         <v>45841</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6155,56 +6167,56 @@
         <v>27</v>
       </c>
       <c r="H87" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>irritable, worried</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>6.818148048871084</v>
+        <v>7.953118458637955</v>
       </c>
       <c r="K87" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>windy</t>
+          <t>stormy</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>financial_worry, relationship_problems</t>
+          <t>financial_worry</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Day 86 - seasonal_depression pattern</t>
+          <t>Day 86 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>mood_20250704_111215</t>
+          <t>mood_20250704_114321</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45842.46684843385</v>
+        <v>45842.4884427288</v>
       </c>
       <c r="C88" s="3" t="n">
         <v>45842</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6221,56 +6233,56 @@
         <v>27</v>
       </c>
       <c r="H88" t="n">
+        <v>5</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>worried, stressed</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>4.806695096230058</v>
+      </c>
+      <c r="K88" t="n">
         <v>6</v>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>content, calm</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>7.163410039130011</v>
-      </c>
-      <c r="K88" t="n">
-        <v>2</v>
-      </c>
       <c r="L88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>stormy</t>
+          <t>cloudy</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>health_concerns, family_issues</t>
+          <t>sleep_deprivation</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Day 87 - seasonal_depression pattern</t>
+          <t>Day 87 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>mood_20250705_111215</t>
+          <t>mood_20250705_114321</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45843.46684843385</v>
+        <v>45843.4884427288</v>
       </c>
       <c r="C89" s="3" t="n">
         <v>45843</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6287,56 +6299,56 @@
         <v>27</v>
       </c>
       <c r="H89" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>calm, hopeful</t>
+          <t>anxious, depressed</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>7.363788516040778</v>
+        <v>5.110264390045846</v>
       </c>
       <c r="K89" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M89" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>rainy</t>
+          <t>foggy</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>financial_worry, relationship_problems</t>
+          <t>health_concerns</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Day 88 - seasonal_depression pattern</t>
+          <t>Day 88 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>mood_20250706_111215</t>
+          <t>mood_20250706_114321</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45844.46684843385</v>
+        <v>45844.4884427288</v>
       </c>
       <c r="C90" s="3" t="n">
         <v>45844</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6353,56 +6365,56 @@
         <v>27</v>
       </c>
       <c r="H90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>hopeful</t>
+          <t>frustrated</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>7.901058882857046</v>
+        <v>6.99924416317517</v>
       </c>
       <c r="K90" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>financial_worry, sleep_deprivation</t>
+          <t>work_stress</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Day 89 - seasonal_depression pattern</t>
+          <t>Day 89 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>mood_20250707_111215</t>
+          <t>mood_20250707_114321</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45845.46684843385</v>
+        <v>45845.4884427288</v>
       </c>
       <c r="C91" s="3" t="n">
         <v>45845</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>11:12:15.704685</t>
+          <t>11:43:21.451768</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6419,24 +6431,24 @@
         <v>28</v>
       </c>
       <c r="H91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>hopeful, peaceful</t>
+          <t>worried</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>7.677390739943807</v>
+        <v>4.699610101508198</v>
       </c>
       <c r="K91" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="L91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6445,12 +6457,12 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>relationship_problems</t>
+          <t>work_stress, family_issues</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Day 90 - seasonal_depression pattern</t>
+          <t>Day 90 - anxiety_pattern pattern</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6526,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.43</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="5">
@@ -6524,7 +6536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6534,7 +6546,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="7">
@@ -6544,7 +6556,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -6554,7 +6566,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -6564,7 +6576,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.06</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="10">
@@ -6574,7 +6586,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.64</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="11">
@@ -6584,7 +6596,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.14</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="12">
@@ -6594,7 +6606,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.56</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13">
@@ -6616,7 +6628,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.23</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="16">
@@ -6626,7 +6638,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.25</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="17">
@@ -6636,7 +6648,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.38</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="18">
@@ -6646,7 +6658,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.31</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="19">
@@ -6656,7 +6668,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.23</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="20">
@@ -6666,7 +6678,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.08</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="21">
@@ -6676,7 +6688,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.54</v>
+        <v>5.54</v>
       </c>
     </row>
   </sheetData>
@@ -6685,6 +6697,255 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Average Mood When Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>stressed</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>worried</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>frustrated</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>irritable</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>depressed</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>calm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>peaceful</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>overwhelmed</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>anxious</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hopeful</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>lonely</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6701,7 +6962,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Emotion</t>
+          <t>Trigger</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -6723,23 +6984,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hopeful</t>
+          <t>family_issues</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>31.11</v>
       </c>
       <c r="D2" t="n">
-        <v>6.41</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>peaceful</t>
+          <t>sleep_deprivation</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6749,288 +7010,103 @@
         <v>28.89</v>
       </c>
       <c r="D3" t="n">
-        <v>6.58</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>weather_change</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>25.56</v>
+        <v>26.67</v>
       </c>
       <c r="D4" t="n">
-        <v>6.7</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>health_concerns</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>24.44</v>
+        <v>25.56</v>
       </c>
       <c r="D5" t="n">
-        <v>6.59</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>worried</t>
+          <t>social_isolation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>11.11</v>
+        <v>21.11</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>irritable</t>
+          <t>financial_worry</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>21.11</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>frustrated</t>
+          <t>relationship_problems</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>8.890000000000001</v>
+        <v>18.89</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>stressed</t>
+          <t>work_stress</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>8.890000000000001</v>
+        <v>18.89</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Trigger</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Percentage</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Average Mood When Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>financial_worry</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>32</v>
-      </c>
-      <c r="C2" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>relationship_problems</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C3" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>family_issues</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C4" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>sleep_deprivation</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>29</v>
-      </c>
-      <c r="C5" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>work_stress</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>27</v>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>health_concerns</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>25</v>
-      </c>
-      <c r="C7" t="n">
-        <v>27.78</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>social_interaction</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>good_news</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>creative_activity</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
+        <v>4.47</v>
       </c>
     </row>
   </sheetData>
@@ -7111,31 +7187,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.77</v>
+        <v>4.95</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
         <v>6</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>7.18</v>
+        <v>6.26</v>
       </c>
       <c r="H2" t="n">
-        <v>20.5</v>
+        <v>12.27</v>
       </c>
       <c r="I2" t="n">
-        <v>3.23</v>
+        <v>2.23</v>
       </c>
       <c r="J2" t="n">
-        <v>3.82</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="3">
@@ -7145,31 +7221,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.43</v>
+        <v>4.29</v>
       </c>
       <c r="C3" t="n">
-        <v>0.53</v>
+        <v>0.76</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>7.04</v>
+        <v>6.18</v>
       </c>
       <c r="H3" t="n">
-        <v>17.43</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>3.14</v>
+        <v>1.43</v>
       </c>
       <c r="J3" t="n">
-        <v>4.29</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="4">
@@ -7179,13 +7255,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.27</v>
+        <v>4.87</v>
       </c>
       <c r="C4" t="n">
-        <v>0.45</v>
+        <v>1.38</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -7194,16 +7270,16 @@
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>6.91</v>
+        <v>6.06</v>
       </c>
       <c r="H4" t="n">
-        <v>15.4</v>
+        <v>12.07</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2.07</v>
       </c>
       <c r="J4" t="n">
-        <v>4.87</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="5">
@@ -7213,13 +7289,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.35</v>
+        <v>4.65</v>
       </c>
       <c r="C5" t="n">
-        <v>0.49</v>
+        <v>1.25</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -7228,16 +7304,16 @@
         <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>7.12</v>
+        <v>5.98</v>
       </c>
       <c r="H5" t="n">
-        <v>14.94</v>
+        <v>9.58</v>
       </c>
       <c r="I5" t="n">
-        <v>3.23</v>
+        <v>1.77</v>
       </c>
       <c r="J5" t="n">
-        <v>4.84</v>
+        <v>6.61</v>
       </c>
     </row>
   </sheetData>
